--- a/Document/Project-Schema.xlsx
+++ b/Document/Project-Schema.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\Project\MyWork\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\OneDrive\Desktop\Project\MyWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F210C950-ABA0-4049-A058-2E4199791E2C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{7D0F5207-0B4C-4E87-9FF0-C35F1B5FEC9B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{AC1CA798-DDCA-4F7F-9DA6-1B57EB550675}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{C314A383-4043-45D0-B6BB-2962B90817C1}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{C314A383-4043-45D0-B6BB-2962B90817C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="53">
   <si>
     <t>FIELD</t>
   </si>
@@ -126,9 +126,6 @@
     <t>Service_info_tbl</t>
   </si>
   <si>
-    <t>Service_Desc</t>
-  </si>
-  <si>
     <t>Service_Cost</t>
   </si>
   <si>
@@ -175,6 +172,18 @@
   </si>
   <si>
     <t>Customer_EmailId</t>
+  </si>
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>auto_increment</t>
+  </si>
+  <si>
+    <t>MUL</t>
   </si>
 </sst>
 </file>
@@ -620,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02ED49E2-2A0E-4C7F-8D1A-6391AA4FF65A}">
-  <dimension ref="A1:BB39"/>
+  <dimension ref="A1:BB38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -634,13 +643,14 @@
     <col min="4" max="4" width="7.5703125" customWidth="1"/>
     <col min="5" max="5" width="6.140625" customWidth="1"/>
     <col min="6" max="6" width="11.7109375" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" customWidth="1"/>
     <col min="8" max="8" width="14.28515625" customWidth="1"/>
     <col min="9" max="9" width="23.140625" customWidth="1"/>
     <col min="10" max="10" width="13.28515625" customWidth="1"/>
     <col min="11" max="11" width="9.5703125" customWidth="1"/>
     <col min="12" max="12" width="6" customWidth="1"/>
     <col min="13" max="13" width="12" customWidth="1"/>
+    <col min="14" max="14" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:54" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -760,16 +770,40 @@
     </row>
     <row r="5" spans="1:54" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
       </c>
+      <c r="D5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>51</v>
+      </c>
       <c r="I5" t="s">
         <v>13</v>
       </c>
       <c r="J5" t="s">
         <v>6</v>
+      </c>
+      <c r="K5" t="s">
+        <v>50</v>
+      </c>
+      <c r="L5" t="s">
+        <v>49</v>
+      </c>
+      <c r="M5" t="s">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:54" x14ac:dyDescent="0.25">
@@ -779,11 +813,23 @@
       <c r="C6" t="s">
         <v>7</v>
       </c>
+      <c r="D6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2</v>
+      </c>
       <c r="I6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J6" t="s">
         <v>7</v>
+      </c>
+      <c r="K6" t="s">
+        <v>50</v>
+      </c>
+      <c r="M6" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:54" x14ac:dyDescent="0.25">
@@ -793,39 +839,75 @@
       <c r="C7" t="s">
         <v>7</v>
       </c>
+      <c r="D7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" t="s">
+        <v>2</v>
+      </c>
       <c r="I7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J7" t="s">
         <v>7</v>
+      </c>
+      <c r="K7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M7" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:54" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
       </c>
+      <c r="D8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" t="s">
+        <v>2</v>
+      </c>
       <c r="I8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J8" t="s">
         <v>6</v>
       </c>
+      <c r="K8" t="s">
+        <v>50</v>
+      </c>
+      <c r="M8" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:54" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
       </c>
+      <c r="D9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" t="s">
+        <v>2</v>
+      </c>
       <c r="I9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J9" t="s">
         <v>7</v>
+      </c>
+      <c r="K9" t="s">
+        <v>50</v>
+      </c>
+      <c r="M9" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -835,11 +917,23 @@
       <c r="C10" t="s">
         <v>7</v>
       </c>
+      <c r="D10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" t="s">
+        <v>2</v>
+      </c>
       <c r="I10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J10" t="s">
         <v>7</v>
+      </c>
+      <c r="K10" t="s">
+        <v>50</v>
+      </c>
+      <c r="M10" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -849,11 +943,23 @@
       <c r="C11" t="s">
         <v>7</v>
       </c>
+      <c r="D11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" t="s">
+        <v>2</v>
+      </c>
       <c r="I11" t="s">
         <v>15</v>
       </c>
       <c r="J11" t="s">
         <v>7</v>
+      </c>
+      <c r="K11" t="s">
+        <v>50</v>
+      </c>
+      <c r="M11" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:54" x14ac:dyDescent="0.25">
@@ -863,11 +969,23 @@
       <c r="C12" t="s">
         <v>7</v>
       </c>
+      <c r="D12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" t="s">
+        <v>2</v>
+      </c>
       <c r="I12" t="s">
         <v>29</v>
       </c>
       <c r="J12" t="s">
         <v>7</v>
+      </c>
+      <c r="K12" t="s">
+        <v>50</v>
+      </c>
+      <c r="M12" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:54" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -877,11 +995,23 @@
       <c r="C13" t="s">
         <v>7</v>
       </c>
+      <c r="D13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" t="s">
+        <v>2</v>
+      </c>
       <c r="I13" t="s">
         <v>30</v>
       </c>
       <c r="J13" t="s">
         <v>7</v>
+      </c>
+      <c r="K13" t="s">
+        <v>50</v>
+      </c>
+      <c r="M13" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:54" x14ac:dyDescent="0.25">
@@ -891,11 +1021,23 @@
       <c r="C14" t="s">
         <v>7</v>
       </c>
+      <c r="D14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" t="s">
+        <v>2</v>
+      </c>
       <c r="I14" t="s">
         <v>10</v>
       </c>
       <c r="J14" t="s">
         <v>7</v>
+      </c>
+      <c r="K14" t="s">
+        <v>50</v>
+      </c>
+      <c r="M14" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:54" x14ac:dyDescent="0.25">
@@ -905,11 +1047,23 @@
       <c r="C15" t="s">
         <v>7</v>
       </c>
+      <c r="D15" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" t="s">
+        <v>2</v>
+      </c>
       <c r="I15" t="s">
         <v>11</v>
       </c>
       <c r="J15" t="s">
         <v>7</v>
+      </c>
+      <c r="K15" t="s">
+        <v>50</v>
+      </c>
+      <c r="M15" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:54" x14ac:dyDescent="0.25">
@@ -919,16 +1073,34 @@
       <c r="C16" t="s">
         <v>6</v>
       </c>
+      <c r="D16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" t="s">
+        <v>2</v>
+      </c>
       <c r="I16" t="s">
         <v>12</v>
       </c>
       <c r="J16" t="s">
         <v>6</v>
+      </c>
+      <c r="K16" t="s">
+        <v>50</v>
+      </c>
+      <c r="M16" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>28</v>
+      </c>
+      <c r="D17" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
@@ -955,7 +1127,7 @@
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="I21" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
@@ -1008,11 +1180,35 @@
       <c r="C23" t="s">
         <v>6</v>
       </c>
+      <c r="D23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" t="s">
+        <v>2</v>
+      </c>
+      <c r="G23" t="s">
+        <v>51</v>
+      </c>
       <c r="I23" t="s">
         <v>17</v>
       </c>
       <c r="J23" t="s">
         <v>6</v>
+      </c>
+      <c r="K23" t="s">
+        <v>50</v>
+      </c>
+      <c r="L23" t="s">
+        <v>49</v>
+      </c>
+      <c r="M23" t="s">
+        <v>2</v>
+      </c>
+      <c r="N23" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
@@ -1022,11 +1218,23 @@
       <c r="C24" t="s">
         <v>7</v>
       </c>
+      <c r="D24" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24" t="s">
+        <v>2</v>
+      </c>
       <c r="I24" t="s">
         <v>16</v>
       </c>
       <c r="J24" t="s">
         <v>9</v>
+      </c>
+      <c r="K24" t="s">
+        <v>50</v>
+      </c>
+      <c r="M24" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
@@ -1034,61 +1242,106 @@
         <v>33</v>
       </c>
       <c r="C25" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="D25" t="s">
+        <v>50</v>
+      </c>
+      <c r="F25" t="s">
+        <v>2</v>
       </c>
       <c r="I25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J25" t="s">
         <v>6</v>
+      </c>
+      <c r="K25" t="s">
+        <v>50</v>
+      </c>
+      <c r="M25" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>34</v>
       </c>
-      <c r="C26" t="s">
-        <v>6</v>
+      <c r="D26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
+        <v>2</v>
       </c>
       <c r="I26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J26" t="s">
         <v>7</v>
+      </c>
+      <c r="K26" t="s">
+        <v>50</v>
+      </c>
+      <c r="M26" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>35</v>
       </c>
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
+        <v>2</v>
+      </c>
       <c r="I27" t="s">
         <v>13</v>
       </c>
       <c r="J27" t="s">
         <v>6</v>
       </c>
+      <c r="K27" t="s">
+        <v>50</v>
+      </c>
+      <c r="L27" t="s">
+        <v>52</v>
+      </c>
+      <c r="M27" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" t="s">
-        <v>6</v>
-      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
       <c r="I28" t="s">
         <v>14</v>
       </c>
       <c r="J28" t="s">
         <v>6</v>
       </c>
+      <c r="K28" t="s">
+        <v>50</v>
+      </c>
+      <c r="L28" t="s">
+        <v>52</v>
+      </c>
+      <c r="M28" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
@@ -1096,87 +1349,126 @@
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
     </row>
-    <row r="32" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-    </row>
-    <row r="33" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="1" t="s">
+    <row r="31" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+    </row>
+    <row r="32" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E33" s="1" t="s">
+      <c r="D32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="F32" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="G32" s="2" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" t="s">
+        <v>50</v>
+      </c>
+      <c r="E33" t="s">
+        <v>49</v>
+      </c>
+      <c r="F33" t="s">
+        <v>2</v>
+      </c>
+      <c r="G33" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C34" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="D34" t="s">
+        <v>50</v>
+      </c>
+      <c r="F34" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="C35" t="s">
         <v>7</v>
+      </c>
+      <c r="D35" t="s">
+        <v>50</v>
+      </c>
+      <c r="F35" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="C36" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="D36" t="s">
+        <v>50</v>
+      </c>
+      <c r="F36" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="D37" t="s">
+        <v>50</v>
+      </c>
+      <c r="E37" t="s">
+        <v>52</v>
+      </c>
+      <c r="F37" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>17</v>
-      </c>
-      <c r="C38" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B31:G31"/>
     <mergeCell ref="B21:G21"/>
     <mergeCell ref="B2:G3"/>
     <mergeCell ref="I2:N3"/>
